--- a/src/assets/static-content/Passengers.xlsx
+++ b/src/assets/static-content/Passengers.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Indigo ERS Source code\ERS\Release\Post-GoLive\CMS.Web\DownloadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilabhrab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Flight Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Passenger's Name</t>
   </si>
@@ -44,34 +41,46 @@
     <t>Passsenger's Destination</t>
   </si>
   <si>
-    <t>6E-356</t>
-  </si>
-  <si>
-    <t>SoumitN</t>
-  </si>
-  <si>
-    <t>11B</t>
-  </si>
-  <si>
-    <t>INFT</t>
-  </si>
-  <si>
     <t>Passenger's Baggage Count(Please enter digits)</t>
   </si>
   <si>
-    <t>CCUHYD</t>
-  </si>
-  <si>
-    <t>P9876AW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Phone Number</t>
-  </si>
-  <si>
     <t xml:space="preserve">PAX Type </t>
   </si>
   <si>
-    <t>ADT</t>
+    <t>Identification Document Type</t>
+  </si>
+  <si>
+    <t>Identification Document Number</t>
+  </si>
+  <si>
+    <t>Inbound Flight Number</t>
+  </si>
+  <si>
+    <t>Outbound Flight Number</t>
+  </si>
+  <si>
+    <t>Passenger's Gender</t>
+  </si>
+  <si>
+    <t>Passenger's Nationality</t>
+  </si>
+  <si>
+    <t>Affected Flight Number</t>
+  </si>
+  <si>
+    <t>Baggage Weight(In KG)</t>
+  </si>
+  <si>
+    <t>Passsenger's Origin</t>
+  </si>
+  <si>
+    <t>Employee Id(If Passenger is an employee)</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Is VIP? (Please Enter "Yes" or "No")</t>
   </si>
 </sst>
 </file>
@@ -396,77 +405,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>9876543210</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/assets/static-content/Passengers.xlsx
+++ b/src/assets/static-content/Passengers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilabhrab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PAL_CMS_Git_03052017\ERSClient\src\assets\static-content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Passenger's Name</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Is VIP? (Please Enter "Yes" or "No")</t>
+  </si>
+  <si>
+    <t>Passenger's Date of Birth(MM/DD/YYYY)</t>
   </si>
 </sst>
 </file>
@@ -405,30 +408,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="4" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -442,48 +447,51 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/src/assets/static-content/Passengers.xlsx
+++ b/src/assets/static-content/Passengers.xlsx
@@ -411,7 +411,7 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +419,9 @@
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="6" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="10" width="14.140625" customWidth="1"/>
@@ -446,7 +448,7 @@
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">

--- a/src/assets/static-content/Passengers.xlsx
+++ b/src/assets/static-content/Passengers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PAL_CMS_Git_03052017\ERSClient\src\assets\static-content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PAL_CMS_GIT_CODE_ITERATION2\ERSClient-Iteration2\src\assets\static-content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Passenger's Name</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Passenger's Nationality</t>
-  </si>
-  <si>
-    <t>Affected Flight Number</t>
   </si>
   <si>
     <t>Baggage Weight(In KG)</t>
@@ -408,93 +405,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" customWidth="1"/>
-    <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
